--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B381CC6-DF9B-0843-9F8D-300F5AE502C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521CE3A0-BF5D-044C-8886-4FB9F7AFC4F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
+  </si>
+  <si>
+    <t>Dollar Tree、Tax、Asian Market</t>
   </si>
 </sst>
 </file>
@@ -41,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -74,7 +77,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,13 +392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
@@ -410,6 +416,21 @@
       <c r="D1">
         <f>9.98+1+11.49+0.42</f>
         <v>22.89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43604</v>
+      </c>
+      <c r="B2">
+        <v>11.13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>4+0.14+6.99</f>
+        <v>11.129999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521CE3A0-BF5D-044C-8886-4FB9F7AFC4F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A9536-3002-F848-8630-03BCB7F6217F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
   <si>
     <t>Dollar Tree、Tax、Asian Market</t>
+  </si>
+  <si>
+    <t>Rice Bowl (Dinner)</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,6 +436,20 @@
         <v>11.129999999999999</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43605</v>
+      </c>
+      <c r="B3">
+        <v>7.62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>7.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A9536-3002-F848-8630-03BCB7F6217F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34938DEB-0904-1C4F-8018-C19D6C704E54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>Dollar Tree、Tax、Asian Market</t>
   </si>
   <si>
-    <t>Rice Bowl (Dinner)</t>
+    <t>Rice Bowl (Dinner)、utility(2.50)</t>
   </si>
 </sst>
 </file>
@@ -441,13 +441,14 @@
         <v>43605</v>
       </c>
       <c r="B3">
-        <v>7.62</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>7.62</v>
+        <f>7.62+2.5</f>
+        <v>10.120000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34938DEB-0904-1C4F-8018-C19D6C704E54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F75D3-1202-044B-AE7B-796BAF8D63D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Rice Bowl (Dinner)、utility(2.50)</t>
+  </si>
+  <si>
+    <t>Fried Chicken</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,6 +454,21 @@
         <v>10.120000000000001</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43607</v>
+      </c>
+      <c r="B4">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>4.98</f>
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F75D3-1202-044B-AE7B-796BAF8D63D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B580AFC-AD88-A84D-81C5-154F96CCEFFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Fried Chicken</t>
+  </si>
+  <si>
+    <t>ice、salad、tax</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,6 +472,21 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43608</v>
+      </c>
+      <c r="B5">
+        <v>5.74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>0.23+5+0.51</f>
+        <v>5.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B580AFC-AD88-A84D-81C5-154F96CCEFFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0720B2C2-476B-3B4B-9BF8-EACE45EFF68C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>ice、salad、tax</t>
+  </si>
+  <si>
+    <t>ice、salad、tax、Asian Market、gas oil(2.539,20)</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,6 +490,21 @@
         <v>5.74</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43609</v>
+      </c>
+      <c r="B6">
+        <v>49.06</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f>5+0.23+0.51+23.32+20</f>
+        <v>49.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0720B2C2-476B-3B4B-9BF8-EACE45EFF68C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9E01FD-EA60-2B45-B111-812AF15E5CBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>ice、salad、tax</t>
   </si>
   <si>
-    <t>ice、salad、tax、Asian Market、gas oil(2.539,20)</t>
+    <t>ice、salad、tax、Asian Market、gas oil(2.539,20)、clothes wash(2)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,14 +495,14 @@
         <v>43609</v>
       </c>
       <c r="B6">
-        <v>49.06</v>
+        <v>51.06</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
-        <f>5+0.23+0.51+23.32+20</f>
-        <v>49.06</v>
+        <f>5+0.23+0.51+23.32+20+2</f>
+        <v>51.06</v>
       </c>
     </row>
   </sheetData>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9E01FD-EA60-2B45-B111-812AF15E5CBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E384FA8A-4775-9643-94AC-F141AD75B553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>ice、salad、tax、Asian Market、gas oil(2.539,20)、clothes wash(2)</t>
+  </si>
+  <si>
+    <t>Toothbrush(2)、Tax</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,6 +508,21 @@
         <v>51.06</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43611</v>
+      </c>
+      <c r="B7">
+        <v>2.13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>1.99+0.14</f>
+        <v>2.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E384FA8A-4775-9643-94AC-F141AD75B553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A7BA6-F359-364D-AD16-949DB6C4E3F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>ice、salad、tax、Asian Market、gas oil(2.539,20)、clothes wash(2)</t>
   </si>
   <si>
-    <t>Toothbrush(2)、Tax</t>
+    <t>Toothbrush(2)、Tax、car insurance</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,14 +513,14 @@
         <v>43611</v>
       </c>
       <c r="B7">
-        <v>2.13</v>
+        <v>82.97</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <f>1.99+0.14</f>
-        <v>2.13</v>
+        <f>1.99+0.14+80.84</f>
+        <v>82.97</v>
       </c>
     </row>
   </sheetData>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A7BA6-F359-364D-AD16-949DB6C4E3F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70CBDAF-72B3-244C-B1B4-7050CA24DF5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>ice、salad、tax、Asian Market、gas oil(2.539,20)、clothes wash(2)</t>
   </si>
   <si>
-    <t>Toothbrush(2)、Tax、car insurance</t>
+    <t>Toothbrush(2)、Tax、car insurance、ice cream</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,14 +513,14 @@
         <v>43611</v>
       </c>
       <c r="B7">
-        <v>82.97</v>
+        <v>86.92</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <f>1.99+0.14+80.84</f>
-        <v>82.97</v>
+        <f>1.99+0.14+80.84+3.95</f>
+        <v>86.92</v>
       </c>
     </row>
   </sheetData>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70CBDAF-72B3-244C-B1B4-7050CA24DF5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A916DB85-E958-DD44-8903-4D3B7316468F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Toothbrush(2)、Tax、car insurance、ice cream</t>
+  </si>
+  <si>
+    <t>Asian Market</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,6 +526,21 @@
         <v>86.92</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B8">
+        <v>11.49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f>11.49</f>
+        <v>11.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A916DB85-E958-DD44-8903-4D3B7316468F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86125445-DED8-2A45-A244-4A6254743EF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Asian Market</t>
+  </si>
+  <si>
+    <t>salad、tax、Asian Market</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,6 +544,21 @@
         <v>11.49</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43613</v>
+      </c>
+      <c r="B9">
+        <v>15.84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f>5+0.48+10.36</f>
+        <v>15.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86125445-DED8-2A45-A244-4A6254743EF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD9A093-B0DA-5645-ACD8-53620511B0A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>salad、tax、Asian Market</t>
+  </si>
+  <si>
+    <t>Chicken Sandwish、Medium Fries、Tax</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,6 +562,21 @@
         <v>15.84</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43614</v>
+      </c>
+      <c r="B10">
+        <v>6.36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f>3.85+1.95+0.56</f>
+        <v>6.3599999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD9A093-B0DA-5645-ACD8-53620511B0A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BF45B-BD20-2F4C-A2FA-9F4840499C5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -60,7 +60,10 @@
     <t>salad、tax、Asian Market</t>
   </si>
   <si>
-    <t>Chicken Sandwish、Medium Fries、Tax</t>
+    <t>Chicken Sandwish、Medium Fries、Tax、Tuition</t>
+  </si>
+  <si>
+    <t>Meat Entrée、tax、Asian Market</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,14 +570,29 @@
         <v>43614</v>
       </c>
       <c r="B10">
-        <v>6.36</v>
+        <v>258.61</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <f>3.85+1.95+0.56</f>
-        <v>6.3599999999999994</v>
+        <f>3.85+1.95+0.56+252.25</f>
+        <v>258.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B11">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f>6.99+0.68+10.18</f>
+        <v>17.850000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740BF45B-BD20-2F4C-A2FA-9F4840499C5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1FC788-611C-B940-AAAF-7A9602488541}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Meat Entrée、tax、Asian Market</t>
+  </si>
+  <si>
+    <t>Pizza、Tax、Asian Market</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +598,23 @@
         <v>17.850000000000001</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B12">
+        <v>14.99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f>3.69+0.36+10.94</f>
+        <v>14.989999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1FC788-611C-B940-AAAF-7A9602488541}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150E1305-D5E1-F84B-9FE4-4CF42FB0D5D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Pizza、Tax、Asian Market</t>
+  </si>
+  <si>
+    <t>Cloth Wash、Electronic Fee( May)、ALDI Market、Gas Fee (2.669,20)</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,6 +616,21 @@
         <v>14.989999999999998</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B13">
+        <v>59.54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f>2+51.22/2+11.93+20</f>
+        <v>59.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150E1305-D5E1-F84B-9FE4-4CF42FB0D5D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4729F-B8AF-3E4F-9ACF-9074B8DF08A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,6 +631,21 @@
         <v>59.54</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43619</v>
+      </c>
+      <c r="B14">
+        <v>13.05</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f>5+0.48+7.57</f>
+        <v>13.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4729F-B8AF-3E4F-9ACF-9074B8DF08A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15C1452-1DC3-EF41-BACA-EF7E6DC9EA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Cloth Wash、Electronic Fee( May)、ALDI Market、Gas Fee (2.669,20)</t>
+  </si>
+  <si>
+    <t>Chicken Sandwish、Medium Fries、Tax、Lemon Chicken、Tax、Tax</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,6 +649,21 @@
         <v>13.05</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43620</v>
+      </c>
+      <c r="B15">
+        <v>11.81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f>3.85+1.95+0.56+4.98+0.35+0.12</f>
+        <v>11.809999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15C1452-1DC3-EF41-BACA-EF7E6DC9EA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31100784-6DAC-5A4D-9152-63D6096BB592}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Chicken Sandwish、Medium Fries、Tax、Lemon Chicken、Tax、Tax</t>
+  </si>
+  <si>
+    <t>Pizza、Tax、Rent Fee (565/2)</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,6 +667,21 @@
         <v>11.809999999999999</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B16">
+        <v>286.55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <f>3.69+0.36+565/2</f>
+        <v>286.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31100784-6DAC-5A4D-9152-63D6096BB592}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B201C6B-D869-6F41-81EC-6A9E80CE0516}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Pizza、Tax、Rent Fee (565/2)</t>
+  </si>
+  <si>
+    <t>Chicken Sandwish、Medium Fries、Tax、</t>
+  </si>
+  <si>
+    <t>Pizza、Tax、Car Repair(Labor 95*2+65、brake hose 58.70*2、Supplies 24.95、Taxes 9.97、Walmart、Taxes</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,6 +688,36 @@
         <v>286.55</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B17">
+        <v>6.36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <f>3.85+1.95+0.56</f>
+        <v>6.3599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43623</v>
+      </c>
+      <c r="B18">
+        <v>435.75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <f>3.69+0.36+407.32+23.91+0.35+0.12</f>
+        <v>435.75000000000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B201C6B-D869-6F41-81EC-6A9E80CE0516}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC367DE-23A4-5F46-8048-27306757DDA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Pizza、Tax、Car Repair(Labor 95*2+65、brake hose 58.70*2、Supplies 24.95、Taxes 9.97、Walmart、Taxes</t>
+  </si>
+  <si>
+    <t>Parking (0.50)、Asian Market、Clothes Washing (1.50+1.50)</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,6 +721,21 @@
         <v>435.75000000000006</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43624</v>
+      </c>
+      <c r="B19">
+        <v>22.45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <f>0.5+18.95+1.5*2</f>
+        <v>22.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC367DE-23A4-5F46-8048-27306757DDA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC63B8C8-FEC6-E941-966E-9C89FFCB15DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,6 +736,21 @@
         <v>22.45</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43626</v>
+      </c>
+      <c r="B20">
+        <v>21.64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <f>5+0.48+16.16</f>
+        <v>21.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC63B8C8-FEC6-E941-966E-9C89FFCB15DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE787F86-4DF8-5843-9281-9551A33F8E06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,6 +751,21 @@
         <v>21.64</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43627</v>
+      </c>
+      <c r="B21">
+        <v>6.36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <f>3.85+1.95+0.56</f>
+        <v>6.3599999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE787F86-4DF8-5843-9281-9551A33F8E06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E219A9-86B3-A24F-BFAB-6D600A7927E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Parking (0.50)、Asian Market、Clothes Washing (1.50+1.50)</t>
+  </si>
+  <si>
+    <t>Chicken Sandwish、Medium Fries、Tax、Internet (45.99/2)</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,12 +759,27 @@
         <v>43627</v>
       </c>
       <c r="B21">
+        <v>29.36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <f>3.85+1.95+0.56+ROUND(45.99/2,2)</f>
+        <v>29.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43628</v>
+      </c>
+      <c r="B22">
         <v>6.36</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f>3.85+1.95+0.56</f>
         <v>6.3599999999999994</v>
       </c>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E219A9-86B3-A24F-BFAB-6D600A7927E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F2B16D-4FB8-F84C-BA7D-363CBE9189BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,6 +784,21 @@
         <v>6.3599999999999994</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43629</v>
+      </c>
+      <c r="B23">
+        <v>12.57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <f>3.69+0.36+8.52</f>
+        <v>12.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F2B16D-4FB8-F84C-BA7D-363CBE9189BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5300AB08-6F2D-CF4B-901A-1604815F4E4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Chicken Sandwish、Medium Fries、Tax、Internet (45.99/2)</t>
+  </si>
+  <si>
+    <t>Chicken Sandwish、Medium Fries、Tax、Smoked Chicken、Tax</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,6 +802,21 @@
         <v>12.57</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B24">
+        <v>12.88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <f>3.85+1.95+0.56+5.98+0.54</f>
+        <v>12.879999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5300AB08-6F2D-CF4B-901A-1604815F4E4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4EEFCF-B6AF-6C4A-930D-8D7B2E7A940D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Chicken Sandwish、Medium Fries、Tax、Smoked Chicken、Tax</t>
+  </si>
+  <si>
+    <t>Walmart、Tax、Dollar Tree、Tax、Gas fee (2.569)、Clothes Wash (1.5*2)</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,6 +820,21 @@
         <v>12.879999999999999</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43631</v>
+      </c>
+      <c r="B25">
+        <v>71.48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <f>40.02+1.32+2+0.14+25+3</f>
+        <v>71.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4EEFCF-B6AF-6C4A-930D-8D7B2E7A940D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA00265-922E-1A4D-9708-A781E36184A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Walmart、Tax、Dollar Tree、Tax、Gas fee (2.569)、Clothes Wash (1.5*2)</t>
+  </si>
+  <si>
+    <t>Asian Market、Walmart</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,6 +838,21 @@
         <v>71.48</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43632</v>
+      </c>
+      <c r="B26">
+        <v>40.97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <f>34.92+6.05</f>
+        <v>40.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/utility_record_start_05_18_2019.xlsx
+++ b/utility_record_start_05_18_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqixu/Documents/personal_utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA00265-922E-1A4D-9708-A781E36184A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B23322-CA2D-5841-A1B6-319CF0BCCA0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{CB47EB6F-BA94-264B-9406-A739C3C233BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t xml:space="preserve">A Plus Buffet、tip (1)、Walmart、tax </t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Asian Market、Walmart</t>
+  </si>
+  <si>
+    <t>Pizza、Tax</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481D509-A07B-5D44-8471-F8EF0CDB80FF}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,6 +856,36 @@
         <v>40.97</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43633</v>
+      </c>
+      <c r="B27">
+        <v>4.05</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <f>3.69+0.36</f>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43634</v>
+      </c>
+      <c r="B28">
+        <v>6.36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <f>3.85+1.95+0.56</f>
+        <v>6.3599999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
